--- a/N3.xlsx
+++ b/N3.xlsx
@@ -14,165 +14,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="55">
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>n3-3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TB_JB</t>
+  </si>
+  <si>
     <t>TODO</t>
   </si>
   <si>
+    <t>TXL 22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>n3-6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>n3-1</t>
+  </si>
+  <si>
+    <t>D-SUB SOCKET</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>n3-36</t>
+  </si>
+  <si>
+    <t>X1-3</t>
+  </si>
+  <si>
+    <t>n3-20</t>
+  </si>
+  <si>
+    <t>TB_JA</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>n3-11</t>
+  </si>
+  <si>
     <t>n3-4/10</t>
   </si>
   <si>
-    <t>N3</t>
+    <t>T5A1b</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>T5A1a</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>TXL 22</t>
-  </si>
-  <si>
-    <t>Device</t>
+    <t>n3-5</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>Termination</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>n3-17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>n3-2/9</t>
   </si>
   <si>
     <t>Pin</t>
   </si>
   <si>
-    <t>n3-2/9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>BLK</t>
-  </si>
-  <si>
-    <t>BLU</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>YEL</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>T5A1b</t>
-  </si>
-  <si>
-    <t>n3-17</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>X1-1</t>
+  </si>
+  <si>
+    <t>J5a</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>70801-SD-100</t>
+  </si>
+  <si>
+    <t>70275-SD-100</t>
+  </si>
+  <si>
+    <t>G51</t>
+  </si>
+  <si>
+    <t>n3-7</t>
+  </si>
+  <si>
+    <t>Wire Item</t>
   </si>
   <si>
     <t>Length</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>70801-SD-100</t>
-  </si>
-  <si>
-    <t>n3-11</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>X1-3</t>
-  </si>
-  <si>
-    <t>G26</t>
-  </si>
-  <si>
-    <t>n3-1</t>
-  </si>
-  <si>
-    <t>TB_JA</t>
-  </si>
-  <si>
-    <t>TB_JB</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>n3-36</t>
-  </si>
-  <si>
-    <t>n3-6</t>
-  </si>
-  <si>
-    <t>Wire Item</t>
-  </si>
-  <si>
-    <t>J5a</t>
-  </si>
-  <si>
-    <t>n3-5</t>
-  </si>
-  <si>
-    <t>X1-1</t>
-  </si>
-  <si>
-    <t>n3-7</t>
-  </si>
-  <si>
-    <t>n3-3</t>
-  </si>
-  <si>
-    <t>PNK</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Wire</t>
-  </si>
-  <si>
-    <t>Termination</t>
-  </si>
-  <si>
-    <t>n3-20</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>G51</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>36</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -814,24 +820,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="2" t="s">
@@ -841,540 +847,542 @@
         <v>0</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="14" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>15</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>22</v>
+      <c r="B7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>52</v>
+      <c r="F8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>6</v>
+      <c r="J10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>31</v>
+      <c r="K11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>33</v>
+      <c r="K12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>6</v>
-      </c>
       <c r="L14" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="37" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>6</v>
-      </c>
       <c r="L15" s="39" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M15" s="39"/>
       <c r="N15" s="38" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O15" s="39" t="s">
         <v>0</v>
       </c>
       <c r="P15" s="42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
